--- a/Sanjay_EPA_Tracker_Action_Plan.xlsx
+++ b/Sanjay_EPA_Tracker_Action_Plan.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\High Pot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E655BD-B03D-439F-9CEF-C0351C4FA239}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4918D1B-ADDA-4C81-9ADA-F06415360C94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9AB9AE3B-EC2F-4B29-8A26-CF9D6337CBA5}"/>
   </bookViews>
   <sheets>
     <sheet name="EPA_Tracker_Action_Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Technical Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Ref" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -107,9 +108,6 @@
     <t>TimeLines</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Nov 30, 2019</t>
   </si>
   <si>
@@ -253,6 +251,12 @@
   </si>
   <si>
     <t>SPARK - https://www.youtube.com/watch?v=B6BAVyy6HNI&amp;list=PLf0swTFhTI8rjBS9zJGReO1IWLf7Lpi7g</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/data-warehousing#courses</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/reeva-lohia/</t>
   </si>
 </sst>
 </file>
@@ -383,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -448,6 +452,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -852,13 +857,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="18"/>
     </row>
@@ -876,17 +881,17 @@
         <v>10</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -908,13 +913,13 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="18"/>
     </row>
@@ -936,13 +941,13 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -966,13 +971,13 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -987,7 +992,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1021,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,16 +1043,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,16 +1060,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,76 +1077,76 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>50</v>
+      <c r="B7" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,16 +1154,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,46 +1171,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,16 +1218,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1235,8 +1240,39 @@
     <hyperlink ref="C12" r:id="rId1" xr:uid="{FDE2871E-D110-40F6-94B5-75F9B3F14ACD}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{140848E5-7690-462B-A716-A2E7050C50CE}"/>
     <hyperlink ref="C13" r:id="rId3" xr:uid="{4150B73C-9223-406D-820A-C7B7E3929F7B}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{B1B0A8CD-4BD8-4581-AF64-11F85745A5E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E268971-522B-4DC9-BCBB-011ADB9B0408}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="courses" xr:uid="{0DD15256-9E00-4DDB-A949-783B22E9C71C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{80C5CEC8-6C04-4446-B420-33149DDB0E2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>